--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt11</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt11</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1470843333333333</v>
+        <v>13.22273466666667</v>
       </c>
       <c r="H2">
-        <v>0.441253</v>
+        <v>39.668204</v>
       </c>
       <c r="I2">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="J2">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N2">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q2">
-        <v>0.3755473885571111</v>
+        <v>8.023978523242665</v>
       </c>
       <c r="R2">
-        <v>3.379926497014</v>
+        <v>72.21580670918399</v>
       </c>
       <c r="S2">
-        <v>0.00177750122669534</v>
+        <v>0.03270139274673961</v>
       </c>
       <c r="T2">
-        <v>0.00177750122669534</v>
+        <v>0.03270139274673961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1470843333333333</v>
+        <v>13.22273466666667</v>
       </c>
       <c r="H3">
-        <v>0.441253</v>
+        <v>39.668204</v>
       </c>
       <c r="I3">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="J3">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>24.175986</v>
       </c>
       <c r="O3">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P3">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q3">
-        <v>1.185302927828667</v>
+        <v>106.5575493943493</v>
       </c>
       <c r="R3">
-        <v>10.667726350458</v>
+        <v>959.017944549144</v>
       </c>
       <c r="S3">
-        <v>0.005610150602606655</v>
+        <v>0.434270887288782</v>
       </c>
       <c r="T3">
-        <v>0.005610150602606657</v>
+        <v>0.434270887288782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1470843333333333</v>
+        <v>13.22273466666667</v>
       </c>
       <c r="H4">
-        <v>0.441253</v>
+        <v>39.668204</v>
       </c>
       <c r="I4">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="J4">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N4">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O4">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P4">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q4">
-        <v>0.7220516027104443</v>
+        <v>121.9552784636013</v>
       </c>
       <c r="R4">
-        <v>6.498464424393999</v>
+        <v>1097.597506172412</v>
       </c>
       <c r="S4">
-        <v>0.003417538368423434</v>
+        <v>0.4970236955425624</v>
       </c>
       <c r="T4">
-        <v>0.003417538368423434</v>
+        <v>0.4970236955425624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.22273466666667</v>
+        <v>0.4938523333333333</v>
       </c>
       <c r="H5">
-        <v>39.668204</v>
+        <v>1.481557</v>
       </c>
       <c r="I5">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="J5">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N5">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O5">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P5">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q5">
-        <v>33.76133515455023</v>
+        <v>0.2996853991413332</v>
       </c>
       <c r="R5">
-        <v>303.852016390952</v>
+        <v>2.697168592271999</v>
       </c>
       <c r="S5">
-        <v>0.1597955850063365</v>
+        <v>0.00122135545470325</v>
       </c>
       <c r="T5">
-        <v>0.1597955850063365</v>
+        <v>0.00122135545470325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.22273466666667</v>
+        <v>0.4938523333333333</v>
       </c>
       <c r="H6">
-        <v>39.668204</v>
+        <v>1.481557</v>
       </c>
       <c r="I6">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="J6">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>24.175986</v>
       </c>
       <c r="O6">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P6">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q6">
-        <v>106.5575493943493</v>
+        <v>3.979789032244666</v>
       </c>
       <c r="R6">
-        <v>959.0179445491441</v>
+        <v>35.81810129020199</v>
       </c>
       <c r="S6">
-        <v>0.504346936054653</v>
+        <v>0.01621946566975672</v>
       </c>
       <c r="T6">
-        <v>0.5043469360546531</v>
+        <v>0.01621946566975672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.22273466666667</v>
+        <v>0.4938523333333333</v>
       </c>
       <c r="H7">
-        <v>39.668204</v>
+        <v>1.481557</v>
       </c>
       <c r="I7">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="J7">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N7">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O7">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P7">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q7">
-        <v>64.91171793697688</v>
+        <v>4.554874642035666</v>
       </c>
       <c r="R7">
-        <v>584.205461432792</v>
+        <v>40.99387177832099</v>
       </c>
       <c r="S7">
-        <v>0.3072332860659258</v>
+        <v>0.01856320329745587</v>
       </c>
       <c r="T7">
-        <v>0.3072332860659259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.242559</v>
-      </c>
-      <c r="H8">
-        <v>0.7276769999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="J8">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.553279333333334</v>
-      </c>
-      <c r="N8">
-        <v>7.659838000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.1645043904057808</v>
-      </c>
-      <c r="P8">
-        <v>0.1645043904057808</v>
-      </c>
-      <c r="Q8">
-        <v>0.619320881814</v>
-      </c>
-      <c r="R8">
-        <v>5.573887936326</v>
-      </c>
-      <c r="S8">
-        <v>0.002931304172748933</v>
-      </c>
-      <c r="T8">
-        <v>0.002931304172748933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.242559</v>
-      </c>
-      <c r="H9">
-        <v>0.7276769999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="J9">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.058662</v>
-      </c>
-      <c r="N9">
-        <v>24.175986</v>
-      </c>
-      <c r="O9">
-        <v>0.5192088709172035</v>
-      </c>
-      <c r="P9">
-        <v>0.5192088709172036</v>
-      </c>
-      <c r="Q9">
-        <v>1.954700996058</v>
-      </c>
-      <c r="R9">
-        <v>17.592308964522</v>
-      </c>
-      <c r="S9">
-        <v>0.009251784259943848</v>
-      </c>
-      <c r="T9">
-        <v>0.009251784259943852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.242559</v>
-      </c>
-      <c r="H10">
-        <v>0.7276769999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="J10">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.909099333333333</v>
-      </c>
-      <c r="N10">
-        <v>14.727298</v>
-      </c>
-      <c r="O10">
-        <v>0.3162867386770156</v>
-      </c>
-      <c r="P10">
-        <v>0.3162867386770157</v>
-      </c>
-      <c r="Q10">
-        <v>1.190746225194</v>
-      </c>
-      <c r="R10">
-        <v>10.716716026746</v>
-      </c>
-      <c r="S10">
-        <v>0.00563591424266636</v>
-      </c>
-      <c r="T10">
-        <v>0.005635914242666361</v>
+        <v>0.01856320329745587</v>
       </c>
     </row>
   </sheetData>
